--- a/drmt_grants/TIRCP_SAR_2022.xlsx
+++ b/drmt_grants/TIRCP_SAR_2022.xlsx
@@ -527,7 +527,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Allocated_Amount</t>
+          <t>Amount_Allocated</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -549,89 +549,89 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Expended_Amount</t>
+          <t>Percent_Allocated</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143556084.9</v>
+        <v>99.97771120858742</v>
       </c>
       <c r="C5" t="n">
-        <v>119517737.55</v>
+        <v>53.5837441847487</v>
       </c>
       <c r="D5" t="n">
-        <v>210456649.72</v>
+        <v>38.28571106013046</v>
       </c>
       <c r="E5" t="n">
-        <v>1823462.51</v>
+        <v>14.806</v>
       </c>
       <c r="F5" t="n">
-        <v>475353934.6799999</v>
+        <v>40.74230654069551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Expended_Percent_of_Awarded</t>
+          <t>Expended_Amount</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63.99383264683856</v>
+        <v>143556084.9</v>
       </c>
       <c r="C6" t="n">
-        <v>15.15868438976008</v>
+        <v>119517737.55</v>
       </c>
       <c r="D6" t="n">
-        <v>4.949915580557713</v>
+        <v>210456649.72</v>
       </c>
       <c r="E6" t="n">
-        <v>0.364692502</v>
+        <v>1823462.51</v>
       </c>
       <c r="F6" t="n">
-        <v>8.246238692936448</v>
+        <v>475353934.6799999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Expended_Percent_of_Allocated</t>
+          <t>Expended_Percent_of_Awarded</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.00809927857392</v>
+        <v>63.99383264683856</v>
       </c>
       <c r="C7" t="n">
-        <v>28.28970729909284</v>
+        <v>15.15868438976008</v>
       </c>
       <c r="D7" t="n">
-        <v>12.92888506833141</v>
+        <v>4.949915580557713</v>
       </c>
       <c r="E7" t="n">
-        <v>2.463139956774281</v>
+        <v>0.364692502</v>
       </c>
       <c r="F7" t="n">
-        <v>20.23998981181805</v>
+        <v>8.246238692936448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Percent_Allocated</t>
+          <t>Expended_Percent_of_Allocated</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.97771120858742</v>
+        <v>64.00809927857392</v>
       </c>
       <c r="C8" t="n">
-        <v>53.5837441847487</v>
+        <v>28.28970729909284</v>
       </c>
       <c r="D8" t="n">
-        <v>38.28571106013046</v>
+        <v>12.92888506833141</v>
       </c>
       <c r="E8" t="n">
-        <v>14.806</v>
+        <v>2.463139956774281</v>
       </c>
       <c r="F8" t="n">
-        <v>40.74230654069551</v>
+        <v>20.23998981181805</v>
       </c>
     </row>
   </sheetData>
@@ -671,24 +671,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Project_Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TIRCP_Award_Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Percent_of_Award_Fully_Allocated</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Implementing_Agency</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Project_Title</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TIRCP_Award_Amount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Percent_of_Award_Fully_Allocated</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Components</t>
@@ -726,7 +726,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Allocation_Allocation_Sheet</t>
+          <t>Allocation_Amount</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Expended_ALLOCATION</t>
+          <t>Expended_Amount</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Allocated_Before_July_2020_1_is_yes</t>
+          <t>Allocated_Before_July_31_2020_1_is_yes</t>
         </is>
       </c>
     </row>
@@ -769,19 +769,19 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Regional Transit Interconnectivity &amp; Environmental Sustability</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>24403000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Antelope Valley Transit Authority </t>
         </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Regional Transit Interconnectivity &amp; Environmental Sustability</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>24403000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
@@ -841,19 +841,19 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>Travel Time Reduction Project</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>4620000</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Capitol Corridor Joint Powers Authority</t>
         </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Travel Time Reduction Project</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>4620000</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
@@ -913,19 +913,19 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>Willowbrook/Rosa Parks Station &amp; Blue Line Light Rail Operational Improvements Project</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>38494000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Willowbrook/Rosa Parks Station &amp; Blue Line Light Rail Operational Improvements Project</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>38494000</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
@@ -985,19 +985,19 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
+          <t>Pacific Surfliner Transit Transfer Program</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles-San Diego-San Luis Obispo Rail Corridor Agency (LOSSAN)</t>
         </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>Pacific Surfliner Transit Transfer Program</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1675000</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
@@ -1057,19 +1057,19 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
+          <t>Monterey Bay Operations and Maintenance Facility/Salinas Transit Service Project</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>Monterey-Salinas Transit</t>
         </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Monterey Bay Operations and Maintenance Facility/Salinas Transit Service Project</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
@@ -1129,19 +1129,19 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
+          <t>Bravo! Route 560 Rapid Buses</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2320000</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
           <t>Orange County Transportation Authority (OCTA)</t>
         </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Bravo! Route 560 Rapid Buses</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2320000</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
+          <t>Sacramento Regional Transit's Refurbishment of 7 Light Rail Vehicles</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>6427000</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
           <t>Sacramento Regional Transit District</t>
         </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Sacramento Regional Transit's Refurbishment of 7 Light Rail Vehicles</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>6427000</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
@@ -1273,19 +1273,19 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
+          <t>South Bay Bus Rapid Transit</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
           <t>San Diego Association of Governments (SANDAG)</t>
         </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>South Bay Bus Rapid Transit</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
@@ -1345,19 +1345,19 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
+          <t>San Diego Metropolitan Transit System Trolley Capacity Improvements</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>31986000</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>99.84368161070468</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
           <t>San Diego Metropolitan Transit System (MTS)</t>
         </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>San Diego Metropolitan Transit System Trolley Capacity Improvements</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>31986000</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>99.84368161070468</v>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
@@ -1525,19 +1525,19 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
+          <t>SFMTA Light Rail Vehicle Fleet Expansion</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>41181000</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
           <t>San Francisco Municipal Transportation Agency</t>
         </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>SFMTA Light Rail Vehicle Fleet Expansion</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>41181000</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
@@ -1597,19 +1597,19 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
+          <t>ACE Wayside Power Project</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
           <t>San Joaquin Regional Rail Commission</t>
         </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>ACE Wayside Power Project</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
@@ -1715,19 +1715,19 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
+          <t>Bus Rapid Transit – Martin Luther King Corridor and Crosstown Miner Corridor</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>6841000</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
           <t>San Joaquin Regional Transit District</t>
         </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>Bus Rapid Transit – Martin Luther King Corridor and Crosstown Miner Corridor</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>6841000</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
@@ -1787,19 +1787,19 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
+          <t>Purchase of Nine Fuel-Efficient Tier IV EMD F-125 Locomotives</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>41181000</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
           <t>Southern California Regional Rail Authority (Metrolink)</t>
         </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Purchase of Nine Fuel-Efficient Tier IV EMD F-125 Locomotives</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>41181000</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
@@ -1859,19 +1859,19 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
+          <t>SMART Rail Car Capacity Project</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
           <t>Sonoma-Marin Area Rail Transit District</t>
         </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>SMART Rail Car Capacity Project</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
@@ -1933,19 +1933,19 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
+          <t>Zero Emission Bus and Vanpool Expansion in the Antelope Valley, Kern County and the Coachella Valley</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>6481000</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>137.7873784909736</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
           <t>SunLine Transit Agency</t>
         </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>Zero Emission Bus and Vanpool Expansion in the Antelope Valley, Kern County and the Coachella Valley</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>6481000</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>137.7873784909736</v>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
+          <t>Increased Rail Service to Roseville, Service Optimization and Standby Power Investments</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>8999000</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>38.2931436826314</v>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Capitol Corridor Joint Powers Authority </t>
         </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>Increased Rail Service to Roseville, Service Optimization and Standby Power Investments</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>8999000</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>38.2931436826314</v>
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2521,19 +2521,19 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
+          <t>Transforming California: Bus Electrification, Service Expansion and Rail Integration</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
           <t>Foothill Transit</t>
         </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>Transforming California: Bus Electrification, Service Expansion and Rail Integration</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
@@ -2593,19 +2593,19 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
+          <t>Metropolitan Rapid Transit and Rail Connectivity Project</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
           <t>City of Fresno</t>
         </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>Metropolitan Rapid Transit and Rail Connectivity Project</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
@@ -2719,19 +2719,19 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
+          <t>Airport Metro Connector 96th Street Station/Metro Green Line Extension to LAX</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>Airport Metro Connector 96th Street Station/Metro Green Line Extension to LAX</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
@@ -2791,19 +2791,19 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
+          <t>Metro Red Line and Purple Line Core Capacity Improvements</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>69209000</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>100.3424410120071</v>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>Metro Red Line and Purple Line Core Capacity Improvements</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>69209000</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>100.3424410120071</v>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
@@ -2971,19 +2971,19 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
+          <t>All Aboard: Transforming Southern California Rail Travel</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>82000000</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>90.80487804878049</v>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
           <t>San Diego Association of Governments (SANDAG)</t>
         </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>All Aboard: Transforming Southern California Rail Travel</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>82000000</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>90.80487804878049</v>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
@@ -3085,19 +3085,19 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
+          <t>OC Streetcar and OCTA System-Wide Mobile Ticketing</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
           <t>Orange County Transportation Authority (OCTA)</t>
         </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>OC Streetcar and OCTA System-Wide Mobile Ticketing</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
@@ -3211,19 +3211,19 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
+          <t>Peninsula Corridor Electrification Project</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Peninsula Corridor Joint Powers Board </t>
         </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>Peninsula Corridor Electrification Project</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
@@ -3283,19 +3283,19 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
+          <t>Downtown/Riverfront Sacramento-West Sacramento Streetcar</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
           <t>Sacramento Regional Transit District</t>
         </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>Downtown/Riverfront Sacramento-West Sacramento Streetcar</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
@@ -3353,19 +3353,19 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
+          <t>Redlands Passenger Rail Project</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>9204000</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
           <t>San Bernardino County Transportation Authority (SBCTA)</t>
         </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>Redlands Passenger Rail Project</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>9204000</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
@@ -3425,19 +3425,19 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
+          <t>Light Rail Modernization and Expansion Program</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>45092000</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
           <t>San Francisco Municipal Transportation Agency</t>
         </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>Light Rail Modernization and Expansion Program</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>45092000</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
@@ -3497,20 +3497,20 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>San Joaquin Regional Rail Commission</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
           <t xml:space="preserve"> ACE Near-Term Capacity Improvement Program
 </t>
         </is>
       </c>
+      <c r="E47" s="1" t="n">
+        <v>16459000</v>
+      </c>
       <c r="F47" s="1" t="n">
-        <v>16459000</v>
-      </c>
-      <c r="G47" s="1" t="n">
         <v>48.60562610122122</v>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>San Joaquin Regional Rail Commission</t>
+        </is>
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3728,19 +3728,19 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
+          <t>BART Silicon Valley Phase II Extension</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
           <t>Santa Clara Valley Transportation Authority</t>
         </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>BART Silicon Valley Phase II Extension</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3798,19 +3798,19 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
+          <t>SB 132 ACE Extension Lathrop to Ceres/Merced</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>400000000</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>25.724954</v>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
           <t>San Joaquin Regional Rail Commission</t>
         </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>SB 132 ACE Extension Lathrop to Ceres/Merced</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>400000000</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>25.724954</v>
       </c>
       <c r="H52" s="1" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>99.98925537863805</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4142,19 +4142,19 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
+          <t>Purchase Zero Emission High Capacity Buses to Support Transbay Tomorrow and Clean Corridors Plan</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Alameda Contra Costa Transit District </t>
         </is>
-      </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t>Purchase Zero Emission High Capacity Buses to Support Transbay Tomorrow and Clean Corridors Plan</t>
-        </is>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>57.14285714285714</v>
       </c>
       <c r="H58" s="1" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4366,19 +4366,19 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
+          <t>#Electrify Anaheim: Changing the Transit Paradigm in Southern California</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>28617000</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
           <t>Anaheim Transportation Network (ATN)</t>
         </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>#Electrify Anaheim: Changing the Transit Paradigm in Southern California</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>28617000</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H62" s="1" t="inlineStr">
         <is>
@@ -4546,19 +4546,19 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
+          <t>From the Desert to the Sea: Antelope Valley Transit Authority and Long Beach Transit Zero Emission Bus Initiative</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>9205000</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Antelope Valley Transit Authority </t>
         </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr">
-        <is>
-          <t>From the Desert to the Sea: Antelope Valley Transit Authority and Long Beach Transit Zero Emission Bus Initiative</t>
-        </is>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>9205000</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H65" s="1" t="inlineStr">
         <is>
@@ -4726,19 +4726,19 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
+          <t>The Transbay Corridor Core Capacity Program: Vehicle Acquistion and Communications-Based Train Control System</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>318600000</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>115.6936597614564</v>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
           <t>Bay Area Rapid Transit District</t>
         </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr">
-        <is>
-          <t>The Transbay Corridor Core Capacity Program: Vehicle Acquistion and Communications-Based Train Control System</t>
-        </is>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>318600000</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>115.6936597614564</v>
       </c>
       <c r="H68" s="1" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4882,19 +4882,19 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
+          <t>The Northern California Corridor Enhancement Program</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>80340000</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>62.28528752800597</v>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Capitol Corridor Joint Powers Authority </t>
         </is>
-      </c>
-      <c r="E71" s="1" t="inlineStr">
-        <is>
-          <t>The Northern California Corridor Enhancement Program</t>
-        </is>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>80340000</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>62.28528752800597</v>
       </c>
       <c r="H71" s="1" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5362,19 +5362,19 @@
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
+          <t>Southwest Fresno Community Connector</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>7798000</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
           <t>City of Fresno</t>
         </is>
-      </c>
-      <c r="E81" s="1" t="inlineStr">
-        <is>
-          <t>Southwest Fresno Community Connector</t>
-        </is>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>7798000</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H81" s="1" t="inlineStr">
         <is>
@@ -5488,19 +5488,19 @@
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
+          <t>Los Angeles City: Leading the Transformation to Zero-Emission Electric Bus Transit Service</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>36104000</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">City of Los Angeles </t>
         </is>
-      </c>
-      <c r="E83" s="1" t="inlineStr">
-        <is>
-          <t>Los Angeles City: Leading the Transformation to Zero-Emission Electric Bus Transit Service</t>
-        </is>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>36104000</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H83" s="1" t="inlineStr">
         <is>
@@ -5614,19 +5614,19 @@
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
+          <t>Electric Blue: Electrification of City of Santa Monica's Big Blue Bus</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
           <t>City of Santa Monica</t>
         </is>
-      </c>
-      <c r="E85" s="1" t="inlineStr">
-        <is>
-          <t>Electric Blue: Electrification of City of Santa Monica's Big Blue Bus</t>
-        </is>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>3050000</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H85" s="1" t="inlineStr">
         <is>
@@ -5686,19 +5686,19 @@
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
+          <t>Dublin/Pleasanton Capacity Improvement and Congestion Reduction Program</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
           <t>Livermore Amador Valley Transit Authority</t>
         </is>
-      </c>
-      <c r="E86" s="1" t="inlineStr">
-        <is>
-          <t>Dublin/Pleasanton Capacity Improvement and Congestion Reduction Program</t>
-        </is>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>20500000</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H86" s="1" t="inlineStr">
         <is>
@@ -5812,19 +5812,19 @@
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
+          <t>Los Angeles Region Transit System Integration and Modernization Program of Projects</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>1088499000</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>23.99634726352528</v>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Los Angeles County Metropolitan Transportation Authority </t>
         </is>
-      </c>
-      <c r="E88" s="1" t="inlineStr">
-        <is>
-          <t>Los Angeles Region Transit System Integration and Modernization Program of Projects</t>
-        </is>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>1088499000</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>23.99634726352528</v>
       </c>
       <c r="H88" s="1" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6252,19 +6252,19 @@
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
+          <t>All Aboard 2018: Transforming SoCal Rail Travel</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>22962000</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>111.3230554829719</v>
+      </c>
+      <c r="G96" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles-San Diego-San Luis Obispo Rail Corridor Agency (LOSSAN)</t>
         </is>
-      </c>
-      <c r="E96" s="1" t="inlineStr">
-        <is>
-          <t>All Aboard 2018: Transforming SoCal Rail Travel</t>
-        </is>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>22962000</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>111.3230554829719</v>
       </c>
       <c r="H96" s="1" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6452,21 +6452,13 @@
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="n"/>
-      <c r="D100" s="1" t="inlineStr">
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="inlineStr">
         <is>
           <t>North County Transit District (NCTD)</t>
         </is>
-      </c>
-      <c r="E100" s="1" t="inlineStr">
-        <is>
-          <t>All Aboard 2018: Transforming SoCal Rail Travel</t>
-        </is>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>22962000</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>111.3230554829719</v>
       </c>
       <c r="H100" s="1" t="inlineStr">
         <is>
@@ -6609,7 +6601,7 @@
       </c>
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -6661,7 +6653,7 @@
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6713,7 +6705,7 @@
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6765,7 +6757,7 @@
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6817,7 +6809,7 @@
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6923,7 +6915,7 @@
       </c>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -6938,19 +6930,19 @@
       </c>
       <c r="D109" s="1" t="inlineStr">
         <is>
+          <t>Building Up: LOSSAN North Improvement Program</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>91366000</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>66.56743208633409</v>
+      </c>
+      <c r="G109" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles-San Diego-San Luis Obispo Rail Corridor Agency (LOSSAN)</t>
         </is>
-      </c>
-      <c r="E109" s="1" t="inlineStr">
-        <is>
-          <t>Building Up: LOSSAN North Improvement Program</t>
-        </is>
-      </c>
-      <c r="F109" s="1" t="n">
-        <v>91366000</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>66.56743208633409</v>
       </c>
       <c r="H109" s="1" t="inlineStr">
         <is>
@@ -6993,7 +6985,7 @@
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7138,21 +7130,13 @@
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="n"/>
       <c r="C113" s="1" t="n"/>
-      <c r="D113" s="1" t="inlineStr">
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n"/>
+      <c r="F113" s="1" t="n"/>
+      <c r="G113" s="1" t="inlineStr">
         <is>
           <t>North County Transit District (NCTD)</t>
         </is>
-      </c>
-      <c r="E113" s="1" t="inlineStr">
-        <is>
-          <t>Building Up: LOSSAN North Improvement Program</t>
-        </is>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>91366000</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <v>66.56743208633409</v>
       </c>
       <c r="H113" s="1" t="inlineStr">
         <is>
@@ -7295,7 +7279,7 @@
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7347,7 +7331,7 @@
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7399,7 +7383,7 @@
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7451,7 +7435,7 @@
       </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7503,7 +7487,7 @@
       </c>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -7609,7 +7593,7 @@
       </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -7624,19 +7608,19 @@
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
+          <t>Peninsula Corridor Electrification Expansion Project</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>203638000</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>61.71834333474106</v>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Peninsula Corridor Joint Powers Board </t>
         </is>
-      </c>
-      <c r="E122" s="1" t="inlineStr">
-        <is>
-          <t>Peninsula Corridor Electrification Expansion Project</t>
-        </is>
-      </c>
-      <c r="F122" s="1" t="n">
-        <v>203638000</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>61.71834333474106</v>
       </c>
       <c r="H122" s="1" t="inlineStr">
         <is>
@@ -7863,7 +7847,7 @@
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8266,7 +8250,7 @@
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8281,19 +8265,19 @@
       </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
+          <t>Accelerating Rail Modernization and Expansion in the Capital Region</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>64350000</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>82.64491064491064</v>
+      </c>
+      <c r="G136" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Sacramento Regional Transit District </t>
         </is>
-      </c>
-      <c r="E136" s="1" t="inlineStr">
-        <is>
-          <t>Accelerating Rail Modernization and Expansion in the Capital Region</t>
-        </is>
-      </c>
-      <c r="F136" s="1" t="n">
-        <v>64350000</v>
-      </c>
-      <c r="G136" s="1" t="n">
-        <v>82.64491064491064</v>
       </c>
       <c r="H136" s="1" t="inlineStr">
         <is>
@@ -8449,19 +8433,19 @@
       </c>
       <c r="D139" s="1" t="inlineStr">
         <is>
+          <t>Diesel Multiple Unit Vehicle to Zero- or Low-Emission Vehicle Conversion and West Valley Connector Bus Rapid Transit</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G139" s="1" t="inlineStr">
+        <is>
           <t>San Bernardino County Transportation Authority (SBCTA)</t>
         </is>
-      </c>
-      <c r="E139" s="1" t="inlineStr">
-        <is>
-          <t>Diesel Multiple Unit Vehicle to Zero- or Low-Emission Vehicle Conversion and West Valley Connector Bus Rapid Transit</t>
-        </is>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="G139" s="1" t="n">
-        <v>95</v>
       </c>
       <c r="H139" s="1" t="inlineStr">
         <is>
@@ -8613,7 +8597,7 @@
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8724,19 +8708,19 @@
       </c>
       <c r="D144" s="1" t="inlineStr">
         <is>
+          <t>Ride Between the Line: Enhancing Access to Transit in San Diego</t>
+        </is>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>5763000</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="1" t="inlineStr">
+        <is>
           <t>San Diego Association of Governments (SANDAG)</t>
         </is>
-      </c>
-      <c r="E144" s="1" t="inlineStr">
-        <is>
-          <t>Ride Between the Line: Enhancing Access to Transit in San Diego</t>
-        </is>
-      </c>
-      <c r="F144" s="1" t="n">
-        <v>5763000</v>
-      </c>
-      <c r="G144" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H144" s="1" t="inlineStr">
         <is>
@@ -8779,7 +8763,7 @@
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8794,19 +8778,19 @@
       </c>
       <c r="D145" s="1" t="inlineStr">
         <is>
+          <t>Blue Line Rail Corridor Transit Enhancements</t>
+        </is>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>40098000</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>82.0040899795501</v>
+      </c>
+      <c r="G145" s="1" t="inlineStr">
+        <is>
           <t>San Diego Metropolitan Transit System (MTS)</t>
         </is>
-      </c>
-      <c r="E145" s="1" t="inlineStr">
-        <is>
-          <t>Blue Line Rail Corridor Transit Enhancements</t>
-        </is>
-      </c>
-      <c r="F145" s="1" t="n">
-        <v>40098000</v>
-      </c>
-      <c r="G145" s="1" t="n">
-        <v>82.0040899795501</v>
       </c>
       <c r="H145" s="1" t="inlineStr">
         <is>
@@ -8849,7 +8833,7 @@
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -9101,7 +9085,7 @@
       </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9199,7 +9183,7 @@
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -9522,19 +9506,19 @@
       </c>
       <c r="D159" s="1" t="inlineStr">
         <is>
+          <t>Transit Capacity Expansion Program</t>
+        </is>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>26867000</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G159" s="1" t="inlineStr">
+        <is>
           <t>San Francisco Municipal Transportation Agency</t>
         </is>
-      </c>
-      <c r="E159" s="1" t="inlineStr">
-        <is>
-          <t>Transit Capacity Expansion Program</t>
-        </is>
-      </c>
-      <c r="F159" s="1" t="n">
-        <v>26867000</v>
-      </c>
-      <c r="G159" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H159" s="1" t="inlineStr">
         <is>
@@ -9594,19 +9578,19 @@
       </c>
       <c r="D160" s="1" t="inlineStr">
         <is>
+          <t>Valley Rail</t>
+        </is>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>500500000</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <v>13.15084915084915</v>
+      </c>
+      <c r="G160" s="1" t="inlineStr">
+        <is>
           <t>San Joaquin Regional Rail Commission</t>
         </is>
-      </c>
-      <c r="E160" s="1" t="inlineStr">
-        <is>
-          <t>Valley Rail</t>
-        </is>
-      </c>
-      <c r="F160" s="1" t="n">
-        <v>500500000</v>
-      </c>
-      <c r="G160" s="1" t="n">
-        <v>13.15084915084915</v>
       </c>
       <c r="H160" s="1" t="inlineStr">
         <is>
@@ -9733,7 +9717,7 @@
       </c>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -10203,7 +10187,7 @@
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -10367,7 +10351,7 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -10382,19 +10366,19 @@
       </c>
       <c r="D176" s="1" t="inlineStr">
         <is>
+          <t>Coastal Express/Pacific Surfliner Peak Hour Service Expansion and Integration Project</t>
+        </is>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>9600000</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G176" s="1" t="inlineStr">
+        <is>
           <t>Santa Barbara County Association of Governments</t>
         </is>
-      </c>
-      <c r="E176" s="1" t="inlineStr">
-        <is>
-          <t>Coastal Express/Pacific Surfliner Peak Hour Service Expansion and Integration Project</t>
-        </is>
-      </c>
-      <c r="F176" s="1" t="n">
-        <v>9600000</v>
-      </c>
-      <c r="G176" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H176" s="1" t="inlineStr">
         <is>
@@ -10609,19 +10593,19 @@
       </c>
       <c r="D180" s="1" t="inlineStr">
         <is>
+          <t>Goleta Train Depot</t>
+        </is>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>13009000</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>16.91136905219464</v>
+      </c>
+      <c r="G180" s="1" t="inlineStr">
+        <is>
           <t>Santa Barbara County Association of Governments</t>
         </is>
-      </c>
-      <c r="E180" s="1" t="inlineStr">
-        <is>
-          <t>Goleta Train Depot</t>
-        </is>
-      </c>
-      <c r="F180" s="1" t="n">
-        <v>13009000</v>
-      </c>
-      <c r="G180" s="1" t="n">
-        <v>16.91136905219464</v>
       </c>
       <c r="H180" s="1" t="inlineStr">
         <is>
@@ -10831,19 +10815,19 @@
       </c>
       <c r="D184" s="1" t="inlineStr">
         <is>
+          <t>VTA’s BART Silicon Valley Extension, Phase II</t>
+        </is>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>730000000</v>
+      </c>
+      <c r="F184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1" t="inlineStr">
+        <is>
           <t>Santa Clara Valley Transportation Authority</t>
         </is>
-      </c>
-      <c r="E184" s="1" t="inlineStr">
-        <is>
-          <t>VTA’s BART Silicon Valley Extension, Phase II</t>
-        </is>
-      </c>
-      <c r="F184" s="1" t="n">
-        <v>730000000</v>
-      </c>
-      <c r="G184" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H184" s="1" t="inlineStr">
         <is>
@@ -10887,7 +10871,7 @@
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -10925,7 +10909,7 @@
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -10940,20 +10924,20 @@
       </c>
       <c r="D186" s="1" t="inlineStr">
         <is>
+          <t>North State Intercity Bus System</t>
+        </is>
+      </c>
+      <c r="E186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G186" s="1" t="inlineStr">
+        <is>
           <t>Shasta Regional Transportation Agency</t>
-        </is>
-      </c>
-      <c r="E186" s="1" t="inlineStr">
-        <is>
-          <t>North State Intercity Bus System</t>
-        </is>
-      </c>
-      <c r="F186" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" s="1" t="inlineStr">
-        <is>
-          <t>inf</t>
         </is>
       </c>
       <c r="H186" s="1" t="inlineStr">
@@ -11014,20 +10998,20 @@
       </c>
       <c r="D187" s="1" t="inlineStr">
         <is>
+          <t>Solano Regional Transit Improvements</t>
+        </is>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G187" s="1" t="inlineStr">
+        <is>
           <t>Solano Transportation Authority</t>
-        </is>
-      </c>
-      <c r="E187" s="1" t="inlineStr">
-        <is>
-          <t>Solano Regional Transit Improvements</t>
-        </is>
-      </c>
-      <c r="F187" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" s="1" t="inlineStr">
-        <is>
-          <t>inf</t>
         </is>
       </c>
       <c r="H187" s="1" t="inlineStr">
@@ -11250,19 +11234,19 @@
       </c>
       <c r="D191" s="1" t="inlineStr">
         <is>
+          <t>SMART Larkspur to Windsor Corridor</t>
+        </is>
+      </c>
+      <c r="E191" s="1" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="F191" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G191" s="1" t="inlineStr">
+        <is>
           <t>Sonoma-Marin Area Rail Transit District</t>
         </is>
-      </c>
-      <c r="E191" s="1" t="inlineStr">
-        <is>
-          <t>SMART Larkspur to Windsor Corridor</t>
-        </is>
-      </c>
-      <c r="F191" s="1" t="n">
-        <v>21000000</v>
-      </c>
-      <c r="G191" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H191" s="1" t="inlineStr">
         <is>
@@ -11376,19 +11360,19 @@
       </c>
       <c r="D193" s="1" t="inlineStr">
         <is>
+          <t>Southern California Optimized Rail Expansion (SCORE)</t>
+        </is>
+      </c>
+      <c r="E193" s="1" t="n">
+        <v>875708000</v>
+      </c>
+      <c r="F193" s="1" t="n">
+        <v>41.59000488747391</v>
+      </c>
+      <c r="G193" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
-      </c>
-      <c r="E193" s="1" t="inlineStr">
-        <is>
-          <t>Southern California Optimized Rail Expansion (SCORE)</t>
-        </is>
-      </c>
-      <c r="F193" s="1" t="n">
-        <v>875708000</v>
-      </c>
-      <c r="G193" s="1" t="n">
-        <v>41.59000488747391</v>
       </c>
       <c r="H193" s="1" t="inlineStr">
         <is>
@@ -11622,28 +11606,20 @@
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
       <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="n"/>
-      <c r="D198" s="1" t="inlineStr">
+      <c r="D198" s="1" t="n"/>
+      <c r="E198" s="1" t="n"/>
+      <c r="F198" s="1" t="n"/>
+      <c r="G198" s="1" t="inlineStr">
         <is>
           <t>Orange County Transportation Authority</t>
         </is>
-      </c>
-      <c r="E198" s="1" t="inlineStr">
-        <is>
-          <t>Southern California Optimized Rail Expansion (SCORE)</t>
-        </is>
-      </c>
-      <c r="F198" s="1" t="n">
-        <v>875708000</v>
-      </c>
-      <c r="G198" s="1" t="n">
-        <v>41.59000488747391</v>
       </c>
       <c r="H198" s="1" t="inlineStr">
         <is>
@@ -11749,21 +11725,13 @@
       <c r="A200" s="1" t="n"/>
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="n"/>
-      <c r="D200" s="1" t="inlineStr">
+      <c r="D200" s="1" t="n"/>
+      <c r="E200" s="1" t="n"/>
+      <c r="F200" s="1" t="n"/>
+      <c r="G200" s="1" t="inlineStr">
         <is>
           <t>Southern California Regional Rail Authority</t>
         </is>
-      </c>
-      <c r="E200" s="1" t="inlineStr">
-        <is>
-          <t>Southern California Optimized Rail Expansion (SCORE)</t>
-        </is>
-      </c>
-      <c r="F200" s="1" t="n">
-        <v>875708000</v>
-      </c>
-      <c r="G200" s="1" t="n">
-        <v>41.59000488747391</v>
       </c>
       <c r="H200" s="1" t="inlineStr">
         <is>
@@ -12090,7 +12058,7 @@
       </c>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -12134,7 +12102,7 @@
       </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -12229,7 +12197,7 @@
       </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -12433,7 +12401,7 @@
       </c>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -12485,7 +12453,7 @@
       </c>
       <c r="S214" t="inlineStr"/>
       <c r="T214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -12580,7 +12548,7 @@
       </c>
       <c r="S216" t="inlineStr"/>
       <c r="T216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -12948,7 +12916,7 @@
       </c>
       <c r="S223" t="inlineStr"/>
       <c r="T223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -12963,19 +12931,19 @@
       </c>
       <c r="D224" s="1" t="inlineStr">
         <is>
+          <t>Rail Extension to Monterey County</t>
+        </is>
+      </c>
+      <c r="E224" s="1" t="n">
+        <v>10148000</v>
+      </c>
+      <c r="F224" s="1" t="n">
+        <v>4.927079227433977</v>
+      </c>
+      <c r="G224" s="1" t="inlineStr">
+        <is>
           <t>Transportation Agency for Monterey County</t>
         </is>
-      </c>
-      <c r="E224" s="1" t="inlineStr">
-        <is>
-          <t>Rail Extension to Monterey County</t>
-        </is>
-      </c>
-      <c r="F224" s="1" t="n">
-        <v>10148000</v>
-      </c>
-      <c r="G224" s="1" t="n">
-        <v>4.927079227433977</v>
       </c>
       <c r="H224" s="1" t="inlineStr">
         <is>
@@ -13072,7 +13040,7 @@
       </c>
       <c r="S225" t="inlineStr"/>
       <c r="T225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13124,7 +13092,7 @@
       </c>
       <c r="S226" t="inlineStr"/>
       <c r="T226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -13141,19 +13109,19 @@
       </c>
       <c r="D227" s="1" t="inlineStr">
         <is>
+          <t>Reaching the Most Transit-Vulnerable: AVTA's Zero Emission "Microtransit" &amp; Bus Expansion Proposal</t>
+        </is>
+      </c>
+      <c r="E227" s="1" t="n">
+        <v>6503000</v>
+      </c>
+      <c r="F227" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G227" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Antelope Valley Transit Authority </t>
         </is>
-      </c>
-      <c r="E227" s="1" t="inlineStr">
-        <is>
-          <t>Reaching the Most Transit-Vulnerable: AVTA's Zero Emission "Microtransit" &amp; Bus Expansion Proposal</t>
-        </is>
-      </c>
-      <c r="F227" s="1" t="n">
-        <v>6503000</v>
-      </c>
-      <c r="G227" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H227" s="1" t="inlineStr">
         <is>
@@ -13267,19 +13235,19 @@
       </c>
       <c r="D229" s="1" t="inlineStr">
         <is>
+          <t>The Transbaby Corridor Core Capacity Program: Vehicle Acquisition</t>
+        </is>
+      </c>
+      <c r="E229" s="1" t="n">
+        <v>107100000</v>
+      </c>
+      <c r="F229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="inlineStr">
+        <is>
           <t>Bay Area Rapid Transit District</t>
         </is>
-      </c>
-      <c r="E229" s="1" t="inlineStr">
-        <is>
-          <t>The Transbaby Corridor Core Capacity Program: Vehicle Acquisition</t>
-        </is>
-      </c>
-      <c r="F229" s="1" t="n">
-        <v>107100000</v>
-      </c>
-      <c r="G229" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H229" s="1" t="inlineStr">
         <is>
@@ -13322,7 +13290,7 @@
       </c>
       <c r="S229" t="inlineStr"/>
       <c r="T229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -13337,19 +13305,19 @@
       </c>
       <c r="D230" s="1" t="inlineStr">
         <is>
+          <t>Sacramento Valley Station (SVS) Transit Center</t>
+        </is>
+      </c>
+      <c r="E230" s="1" t="n">
+        <v>3914000</v>
+      </c>
+      <c r="F230" s="1" t="n">
+        <v>18.39550332141032</v>
+      </c>
+      <c r="G230" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Capitol Corridor Joint Powers Authority </t>
         </is>
-      </c>
-      <c r="E230" s="1" t="inlineStr">
-        <is>
-          <t>Sacramento Valley Station (SVS) Transit Center</t>
-        </is>
-      </c>
-      <c r="F230" s="1" t="n">
-        <v>3914000</v>
-      </c>
-      <c r="G230" s="1" t="n">
-        <v>18.39550332141032</v>
       </c>
       <c r="H230" s="1" t="inlineStr">
         <is>
@@ -13461,19 +13429,19 @@
       </c>
       <c r="D232" s="1" t="inlineStr">
         <is>
+          <t>Inglewood Transit Connector Project</t>
+        </is>
+      </c>
+      <c r="E232" s="1" t="n">
+        <v>95200000</v>
+      </c>
+      <c r="F232" s="1" t="n">
+        <v>21.00840336134454</v>
+      </c>
+      <c r="G232" s="1" t="inlineStr">
+        <is>
           <t>City of Inglewood</t>
         </is>
-      </c>
-      <c r="E232" s="1" t="inlineStr">
-        <is>
-          <t>Inglewood Transit Connector Project</t>
-        </is>
-      </c>
-      <c r="F232" s="1" t="n">
-        <v>95200000</v>
-      </c>
-      <c r="G232" s="1" t="n">
-        <v>21.00840336134454</v>
       </c>
       <c r="H232" s="1" t="inlineStr">
         <is>
@@ -13577,19 +13545,19 @@
       </c>
       <c r="D234" s="1" t="inlineStr">
         <is>
+          <t>North State Intercity Bus System</t>
+        </is>
+      </c>
+      <c r="E234" s="1" t="n">
+        <v>12994000</v>
+      </c>
+      <c r="F234" s="1" t="n">
+        <v>1.923964906880099</v>
+      </c>
+      <c r="G234" s="1" t="inlineStr">
+        <is>
           <t>Lake Transit Authority</t>
         </is>
-      </c>
-      <c r="E234" s="1" t="inlineStr">
-        <is>
-          <t>North State Intercity Bus System</t>
-        </is>
-      </c>
-      <c r="F234" s="1" t="n">
-        <v>12994000</v>
-      </c>
-      <c r="G234" s="1" t="n">
-        <v>1.923964906880099</v>
       </c>
       <c r="H234" s="1" t="inlineStr">
         <is>
@@ -13649,19 +13617,19 @@
       </c>
       <c r="D235" s="1" t="inlineStr">
         <is>
+          <t>LBT/UCLA Electric Commuter Express</t>
+        </is>
+      </c>
+      <c r="E235" s="1" t="n">
+        <v>6451000</v>
+      </c>
+      <c r="F235" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G235" s="1" t="inlineStr">
+        <is>
           <t>Long Beach Transit</t>
         </is>
-      </c>
-      <c r="E235" s="1" t="inlineStr">
-        <is>
-          <t>LBT/UCLA Electric Commuter Express</t>
-        </is>
-      </c>
-      <c r="F235" s="1" t="n">
-        <v>6451000</v>
-      </c>
-      <c r="G235" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H235" s="1" t="inlineStr">
         <is>
@@ -13721,19 +13689,19 @@
       </c>
       <c r="D236" s="1" t="inlineStr">
         <is>
+          <t>Metrolink Antelope Valley Line Capital and Service Improvements</t>
+        </is>
+      </c>
+      <c r="E236" s="1" t="n">
+        <v>107050000</v>
+      </c>
+      <c r="F236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
-      </c>
-      <c r="E236" s="1" t="inlineStr">
-        <is>
-          <t>Metrolink Antelope Valley Line Capital and Service Improvements</t>
-        </is>
-      </c>
-      <c r="F236" s="1" t="n">
-        <v>107050000</v>
-      </c>
-      <c r="G236" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H236" s="1" t="inlineStr">
         <is>
@@ -13983,19 +13951,19 @@
       </c>
       <c r="D241" s="1" t="inlineStr">
         <is>
+          <t>Building Up Control: LOSSAN Service Enhancement Program</t>
+        </is>
+      </c>
+      <c r="E241" s="1" t="n">
+        <v>38743000</v>
+      </c>
+      <c r="F241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="1" t="inlineStr">
+        <is>
           <t>Los Angeles-San Diego-San Luis Obispo Rail Corridor Agency (LOSSAN)</t>
         </is>
-      </c>
-      <c r="E241" s="1" t="inlineStr">
-        <is>
-          <t>Building Up Control: LOSSAN Service Enhancement Program</t>
-        </is>
-      </c>
-      <c r="F241" s="1" t="n">
-        <v>38743000</v>
-      </c>
-      <c r="G241" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H241" s="1" t="inlineStr">
         <is>
@@ -14237,19 +14205,19 @@
       </c>
       <c r="D246" s="1" t="inlineStr">
         <is>
+          <t>Light Rail Modernization and Expansion of Low-Floor Fleet</t>
+        </is>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>23600000</v>
+      </c>
+      <c r="F246" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G246" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve">Sacramento Regional Transit District </t>
         </is>
-      </c>
-      <c r="E246" s="1" t="inlineStr">
-        <is>
-          <t>Light Rail Modernization and Expansion of Low-Floor Fleet</t>
-        </is>
-      </c>
-      <c r="F246" s="1" t="n">
-        <v>23600000</v>
-      </c>
-      <c r="G246" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H246" s="1" t="inlineStr">
         <is>
@@ -14309,19 +14277,19 @@
       </c>
       <c r="D247" s="1" t="inlineStr">
         <is>
+          <t>West Valley Connector Bus Rapid Transit Phase 1 &amp; ZEB Initiative</t>
+        </is>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="F247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1" t="inlineStr">
+        <is>
           <t>San Bernardino County Transportation Authority (SBCTA) and Omnitrans</t>
         </is>
-      </c>
-      <c r="E247" s="1" t="inlineStr">
-        <is>
-          <t>West Valley Connector Bus Rapid Transit Phase 1 &amp; ZEB Initiative</t>
-        </is>
-      </c>
-      <c r="F247" s="1" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="G247" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H247" s="1" t="inlineStr">
         <is>
@@ -14379,19 +14347,19 @@
       </c>
       <c r="D248" s="1" t="inlineStr">
         <is>
+          <t>SDConnect: San Diego Rail Improvement Program</t>
+        </is>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>12100000</v>
+      </c>
+      <c r="F248" s="1" t="n">
+        <v>37.1404958677686</v>
+      </c>
+      <c r="G248" s="1" t="inlineStr">
+        <is>
           <t>San Diego Association of Governments (SANDAG)</t>
         </is>
-      </c>
-      <c r="E248" s="1" t="inlineStr">
-        <is>
-          <t>SDConnect: San Diego Rail Improvement Program</t>
-        </is>
-      </c>
-      <c r="F248" s="1" t="n">
-        <v>12100000</v>
-      </c>
-      <c r="G248" s="1" t="n">
-        <v>37.1404958677686</v>
       </c>
       <c r="H248" s="1" t="inlineStr">
         <is>
@@ -14487,21 +14455,13 @@
       <c r="A250" s="1" t="n"/>
       <c r="B250" s="1" t="n"/>
       <c r="C250" s="1" t="n"/>
-      <c r="D250" s="1" t="inlineStr">
+      <c r="D250" s="1" t="n"/>
+      <c r="E250" s="1" t="n"/>
+      <c r="F250" s="1" t="n"/>
+      <c r="G250" s="1" t="inlineStr">
         <is>
           <t>San Diego Metropolitan Transit System (MTS)</t>
         </is>
-      </c>
-      <c r="E250" s="1" t="inlineStr">
-        <is>
-          <t>SDConnect: San Diego Rail Improvement Program</t>
-        </is>
-      </c>
-      <c r="F250" s="1" t="n">
-        <v>12100000</v>
-      </c>
-      <c r="G250" s="1" t="n">
-        <v>37.1404958677686</v>
       </c>
       <c r="H250" s="1" t="inlineStr">
         <is>
@@ -14605,19 +14565,19 @@
       </c>
       <c r="D252" s="1" t="inlineStr">
         <is>
+          <t>Core Capacity Program</t>
+        </is>
+      </c>
+      <c r="E252" s="1" t="n">
+        <v>41668000</v>
+      </c>
+      <c r="F252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" s="1" t="inlineStr">
+        <is>
           <t>San Francisco Municipal Transportation Agency</t>
         </is>
-      </c>
-      <c r="E252" s="1" t="inlineStr">
-        <is>
-          <t>Core Capacity Program</t>
-        </is>
-      </c>
-      <c r="F252" s="1" t="n">
-        <v>41668000</v>
-      </c>
-      <c r="G252" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H252" s="1" t="inlineStr">
         <is>
@@ -14727,19 +14687,19 @@
       </c>
       <c r="D254" s="1" t="inlineStr">
         <is>
+          <t>For People, Place and Planet: Connecting Inglewood to Regional Opportunities</t>
+        </is>
+      </c>
+      <c r="E254" s="1" t="n">
+        <v>1105000</v>
+      </c>
+      <c r="F254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" s="1" t="inlineStr">
+        <is>
           <t>City of Santa Monica</t>
         </is>
-      </c>
-      <c r="E254" s="1" t="inlineStr">
-        <is>
-          <t>For People, Place and Planet: Connecting Inglewood to Regional Opportunities</t>
-        </is>
-      </c>
-      <c r="F254" s="1" t="n">
-        <v>1105000</v>
-      </c>
-      <c r="G254" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H254" s="1" t="inlineStr">
         <is>
@@ -14782,7 +14742,7 @@
       </c>
       <c r="S254" t="inlineStr"/>
       <c r="T254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -14797,19 +14757,19 @@
       </c>
       <c r="D255" s="1" t="inlineStr">
         <is>
+          <t>Solano Regional Transit Improvements Phase 2</t>
+        </is>
+      </c>
+      <c r="E255" s="1" t="n">
+        <v>10400000</v>
+      </c>
+      <c r="F255" s="1" t="n">
+        <v>27.88461538461539</v>
+      </c>
+      <c r="G255" s="1" t="inlineStr">
+        <is>
           <t>Solano Transportation Authority</t>
         </is>
-      </c>
-      <c r="E255" s="1" t="inlineStr">
-        <is>
-          <t>Solano Regional Transit Improvements Phase 2</t>
-        </is>
-      </c>
-      <c r="F255" s="1" t="n">
-        <v>10400000</v>
-      </c>
-      <c r="G255" s="1" t="n">
-        <v>27.88461538461539</v>
       </c>
       <c r="H255" s="1" t="inlineStr">
         <is>
@@ -15171,19 +15131,19 @@
       </c>
       <c r="D262" s="1" t="inlineStr">
         <is>
+          <t>Torrance Transit Bus Service Enhancement Program</t>
+        </is>
+      </c>
+      <c r="E262" s="1" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="F262" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G262" s="1" t="inlineStr">
+        <is>
           <t>Torrance Transit Department</t>
         </is>
-      </c>
-      <c r="E262" s="1" t="inlineStr">
-        <is>
-          <t>Torrance Transit Bus Service Enhancement Program</t>
-        </is>
-      </c>
-      <c r="F262" s="1" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="G262" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H262" s="1" t="inlineStr">
         <is>
@@ -15243,19 +15203,19 @@
       </c>
       <c r="D263" s="1" t="inlineStr">
         <is>
+          <t>Improving Air Quality &amp; Economic Growth with Electric Buses in Merced County, the Gateway to Yosemite</t>
+        </is>
+      </c>
+      <c r="E263" s="1" t="n">
+        <v>3112000</v>
+      </c>
+      <c r="F263" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G263" s="1" t="inlineStr">
+        <is>
           <t>Transit Joint Powers Authority for Merced County</t>
         </is>
-      </c>
-      <c r="E263" s="1" t="inlineStr">
-        <is>
-          <t>Improving Air Quality &amp; Economic Growth with Electric Buses in Merced County, the Gateway to Yosemite</t>
-        </is>
-      </c>
-      <c r="F263" s="1" t="n">
-        <v>3112000</v>
-      </c>
-      <c r="G263" s="1" t="n">
-        <v>100</v>
       </c>
       <c r="H263" s="1" t="inlineStr">
         <is>
@@ -15315,19 +15275,19 @@
       </c>
       <c r="D264" s="1" t="inlineStr">
         <is>
+          <t>Expansion of WETA Ferry Services</t>
+        </is>
+      </c>
+      <c r="E264" s="1" t="n">
+        <v>9060000</v>
+      </c>
+      <c r="F264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" s="1" t="inlineStr">
+        <is>
           <t>San Francisco Bay Area Water Emergency Transportation Authority</t>
         </is>
-      </c>
-      <c r="E264" s="1" t="inlineStr">
-        <is>
-          <t>Expansion of WETA Ferry Services</t>
-        </is>
-      </c>
-      <c r="F264" s="1" t="n">
-        <v>9060000</v>
-      </c>
-      <c r="G264" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="H264" s="1" t="inlineStr">
         <is>
@@ -15374,7 +15334,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="403">
+  <mergeCells count="388">
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="A19:A57"/>
     <mergeCell ref="A58:A226"/>
@@ -15477,10 +15437,8 @@
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="D86:D87"/>
     <mergeCell ref="D88:D95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="D109:D112"/>
-    <mergeCell ref="D113:D121"/>
+    <mergeCell ref="D96:D108"/>
+    <mergeCell ref="D109:D121"/>
     <mergeCell ref="D122:D135"/>
     <mergeCell ref="D136:D138"/>
     <mergeCell ref="D139:D143"/>
@@ -15491,17 +15449,14 @@
     <mergeCell ref="D184:D185"/>
     <mergeCell ref="D187:D190"/>
     <mergeCell ref="D191:D192"/>
-    <mergeCell ref="D193:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D200:D223"/>
+    <mergeCell ref="D193:D223"/>
     <mergeCell ref="D224:D226"/>
     <mergeCell ref="D227:D228"/>
     <mergeCell ref="D230:D231"/>
     <mergeCell ref="D232:D233"/>
     <mergeCell ref="D236:D240"/>
     <mergeCell ref="D241:D245"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="D248:D251"/>
     <mergeCell ref="D252:D253"/>
     <mergeCell ref="D255:D261"/>
     <mergeCell ref="E10:E12"/>
@@ -15522,10 +15477,8 @@
     <mergeCell ref="E83:E84"/>
     <mergeCell ref="E86:E87"/>
     <mergeCell ref="E88:E95"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="E113:E121"/>
+    <mergeCell ref="E96:E108"/>
+    <mergeCell ref="E109:E121"/>
     <mergeCell ref="E122:E135"/>
     <mergeCell ref="E136:E138"/>
     <mergeCell ref="E139:E143"/>
@@ -15536,17 +15489,14 @@
     <mergeCell ref="E184:E185"/>
     <mergeCell ref="E187:E190"/>
     <mergeCell ref="E191:E192"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="E200:E223"/>
+    <mergeCell ref="E193:E223"/>
     <mergeCell ref="E224:E226"/>
     <mergeCell ref="E227:E228"/>
     <mergeCell ref="E230:E231"/>
     <mergeCell ref="E232:E233"/>
     <mergeCell ref="E236:E240"/>
     <mergeCell ref="E241:E245"/>
-    <mergeCell ref="E248:E249"/>
-    <mergeCell ref="E250:E251"/>
+    <mergeCell ref="E248:E251"/>
     <mergeCell ref="E252:E253"/>
     <mergeCell ref="E255:E261"/>
     <mergeCell ref="F10:F12"/>
@@ -15567,10 +15517,8 @@
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="F86:F87"/>
     <mergeCell ref="F88:F95"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F108"/>
-    <mergeCell ref="F109:F112"/>
-    <mergeCell ref="F113:F121"/>
+    <mergeCell ref="F96:F108"/>
+    <mergeCell ref="F109:F121"/>
     <mergeCell ref="F122:F135"/>
     <mergeCell ref="F136:F138"/>
     <mergeCell ref="F139:F143"/>
@@ -15581,17 +15529,14 @@
     <mergeCell ref="F184:F185"/>
     <mergeCell ref="F187:F190"/>
     <mergeCell ref="F191:F192"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="F200:F223"/>
+    <mergeCell ref="F193:F223"/>
     <mergeCell ref="F224:F226"/>
     <mergeCell ref="F227:F228"/>
     <mergeCell ref="F230:F231"/>
     <mergeCell ref="F232:F233"/>
     <mergeCell ref="F236:F240"/>
     <mergeCell ref="F241:F245"/>
-    <mergeCell ref="F248:F249"/>
-    <mergeCell ref="F250:F251"/>
+    <mergeCell ref="F248:F251"/>
     <mergeCell ref="F252:F253"/>
     <mergeCell ref="F255:F261"/>
     <mergeCell ref="G10:G12"/>
